--- a/Worked_Examples/MLMcorr.xlsx
+++ b/Worked_Examples/MLMcorr.xlsx
@@ -351,7 +351,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lavaan 0.6.16</t>
+          <t>lavaan 0.6.17</t>
         </is>
       </c>
     </row>
@@ -428,7 +428,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.674</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.725</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
